--- a/xlsx/犹太人_intext.xlsx
+++ b/xlsx/犹太人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="992">
   <si>
     <t>犹太人</t>
   </si>
@@ -29,7 +29,7 @@
     <t>犹太 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_犹太人</t>
+    <t>政策_政策_美国_犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%BF%AA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉迪諾語</t>
+    <t>拉迪诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA-%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>猶太-阿拉伯語</t>
+    <t>犹太-阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>猶太語言</t>
+    <t>犹太语言</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biblical_Hebrew</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>撒馬利亞人</t>
+    <t>撒马利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
@@ -263,15 +263,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%81%E6%98%AF%E7%8A%B9%E5%A4%AA%E4%BA%BA%EF%BC%9F</t>
   </si>
   <si>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95</t>
   </si>
   <si>
-    <t>亞伯拉罕</t>
+    <t>亚伯拉罕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E6%92%92</t>
@@ -299,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F_(%E8%88%8A%E7%B4%84%E8%81%96%E7%B6%93)</t>
   </si>
   <si>
-    <t>約瑟 (舊約聖經)</t>
+    <t>约瑟 (旧约圣经)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF</t>
@@ -311,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%8E%8B</t>
   </si>
   <si>
-    <t>大衛王</t>
+    <t>大卫王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80</t>
   </si>
   <si>
-    <t>所羅門</t>
+    <t>所罗门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA%E5%8E%86%E5%8F%B2</t>
@@ -347,43 +341,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>以色列王國</t>
+    <t>以色列王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%8E%8B%E5%9C%8B_(%E5%BE%8C%E6%9C%9F)</t>
   </si>
   <si>
-    <t>以色列王國 (後期)</t>
+    <t>以色列王国 (后期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%B9%A4%E7%9A%84%E4%BB%A5%E8%89%B2%E5%88%97%E5%8D%81%E6%94%AF%E6%B4%BE</t>
   </si>
   <si>
-    <t>失蹤的以色列十支派</t>
+    <t>失踪的以色列十支派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%A7%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>猶大王國</t>
+    <t>犹大王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>猶太人大屠殺</t>
+    <t>犹太人大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E8%AA%A1</t>
   </si>
   <si>
-    <t>十誡</t>
+    <t>十诫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%B4%8D%E8%B5%AB</t>
   </si>
   <si>
-    <t>塔納赫</t>
+    <t>塔纳赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9C%A8%E5%BE%B7</t>
@@ -401,31 +395,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%9B%B8%E6%8B%BF</t>
   </si>
   <si>
-    <t>米書拿</t>
+    <t>米书拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>革馬拉</t>
+    <t>革马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E6%9B%86</t>
   </si>
   <si>
-    <t>希伯來曆</t>
+    <t>希伯来历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E4%B8%83%E7%AF%80</t>
   </si>
   <si>
-    <t>七七節</t>
+    <t>七七节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BE%E8%B6%8A%E7%AF%80</t>
   </si>
   <si>
-    <t>逾越節</t>
+    <t>逾越节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%81%AF%E6%97%A5</t>
@@ -437,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E6%A3%9A%E7%AF%80</t>
   </si>
   <si>
-    <t>住棚節</t>
+    <t>住棚节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E7%AF%80</t>
   </si>
   <si>
-    <t>贖罪節</t>
+    <t>赎罪节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%8F%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>普珥節</t>
+    <t>普珥节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E8%8A%82</t>
@@ -461,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教正統派</t>
+    <t>犹太教正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教保守派</t>
+    <t>犹太教保守派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%94%B9%E9%9D%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教改革派</t>
+    <t>犹太教改革派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
@@ -491,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E8%81%96%E6%AE%BF</t>
   </si>
   <si>
-    <t>耶路撒冷聖殿</t>
+    <t>耶路撒冷圣殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%9C%83%E5%A0%82</t>
   </si>
   <si>
-    <t>猶太會堂</t>
+    <t>犹太会堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Jew</t>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E7%89%A7%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>遊牧民族</t>
+    <t>游牧民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E8%8B%B1%E8%AF%AD</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>古法語</t>
+    <t>古法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -563,9 +557,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
   </si>
   <si>
-    <t>意第緒語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%82%B3%E7%B5%B1%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>美國傳統英語詞典</t>
+    <t>美国传统英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%8B%89</t>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>利亞</t>
+    <t>利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BB%93</t>
@@ -623,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%9F%83%E5%8F%8A%E8%A8%98</t>
   </si>
   <si>
-    <t>出埃及記</t>
+    <t>出埃及记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%A7%E6%94%AF%E6%B4%BE</t>
@@ -647,31 +638,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%8E%8B%E5%9C%8B_(%E5%89%8D%E6%9C%9F)</t>
   </si>
   <si>
-    <t>以色列王國 (前期)</t>
+    <t>以色列王国 (前期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>士師</t>
+    <t>士师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E6%96%AF%E5%B8%96%E8%A8%98</t>
   </si>
   <si>
-    <t>以斯帖記</t>
+    <t>以斯帖记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C%E6%99%BA%E6%85%A7%E6%9B%B8</t>
   </si>
   <si>
-    <t>詩歌智慧書</t>
+    <t>诗歌智慧书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B7%B4%E6%AF%94%E5%80%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>新巴比倫王國</t>
+    <t>新巴比伦王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%B8%83%E7%94%B2%E5%B0%BC%E6%92%92%E4%BA%8C%E4%B8%96</t>
@@ -725,25 +716,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%8B%89%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>亞拉姆語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%A7%91%E8%B5%AB%E5%B7%B4%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>巴爾科赫巴起義</t>
+    <t>巴尔科赫巴起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B2%E6%92%92%E5%88%A9%E4%BA%9E%E7%9A%84%E5%84%AA%E8%A5%BF%E6%AF%94%E7%83%8F</t>
   </si>
   <si>
-    <t>該撒利亞的優西比烏</t>
+    <t>该撒利亚的优西比乌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B2%E7%A6%AE</t>
   </si>
   <si>
-    <t>割禮</t>
+    <t>割礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E4%BA%94%E7%BB%8F</t>
@@ -761,25 +749,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%9C%AA%E8%A8%98</t>
   </si>
   <si>
-    <t>利未記</t>
+    <t>利未记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E6%96%AF%E6%8B%89%E8%A8%98</t>
   </si>
   <si>
-    <t>以斯拉記</t>
+    <t>以斯拉记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>希伯來聖經</t>
+    <t>希伯来圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84_(%E8%88%8A%E7%B4%84%E8%81%96%E7%B6%93)</t>
   </si>
   <si>
-    <t>雅各 (舊約聖經)</t>
+    <t>雅各 (旧约圣经)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9B%BD</t>
@@ -797,9 +785,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%E7%8E%8B</t>
   </si>
   <si>
-    <t>大卫王</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BC%80%E6%9C%97%E5%9F%BA%E7%BD%97</t>
   </si>
   <si>
@@ -833,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84_(%E8%88%8A%E7%B4%84)</t>
   </si>
   <si>
-    <t>雅各 (舊約)</t>
+    <t>雅各 (旧约)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E4%BC%A6%E6%99%AE%E5%A1%94%E8%B5%AB%E7%9F%B3%E7%A2%91</t>
@@ -875,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E7%BE%85</t>
   </si>
   <si>
-    <t>掃羅</t>
+    <t>扫罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E7%BE%85%E7%8E%8B</t>
   </si>
   <si>
-    <t>掃羅王</t>
+    <t>扫罗王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%85%B0</t>
@@ -911,9 +896,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8</t>
   </si>
   <si>
-    <t>所罗门</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%8E%B1%E6%9B%BC</t>
   </si>
   <si>
@@ -977,9 +959,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%A0%E6%AF%94%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>馬加比家族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -1019,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E7%87%88%E8%87%BA</t>
   </si>
   <si>
-    <t>猶太教燈臺</t>
+    <t>犹太教灯台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A2%99</t>
@@ -1037,19 +1016,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%C2%B7%E7%A7%91%E8%B5%AB%E5%B7%B4</t>
   </si>
   <si>
-    <t>巴爾·科赫巴</t>
+    <t>巴尔·科赫巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E6%9F%AF%E8%B5%AB%E5%B7%B4%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>巴爾柯赫巴起義</t>
+    <t>巴尔柯赫巴起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%88%90%E6%96%87%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>不成文憲法</t>
+    <t>不成文宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A5%E5%A4%9A%E8%A5%BF%E4%B8%80%E4%B8%96</t>
@@ -1061,13 +1040,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E5%91%BD%E8%A8%98</t>
   </si>
   <si>
-    <t>申命記</t>
+    <t>申命记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%89%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>安那托利亞</t>
+    <t>安那托利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%8B%92%E5%AF%86%E7%8E%8B%E6%9C%9D</t>
@@ -1103,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E8%B3%BD%E4%BA%9E</t>
   </si>
   <si>
-    <t>彌賽亞</t>
+    <t>弥赛亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E5%85%8B%E7%95%A5</t>
@@ -1127,19 +1106,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9</t>
   </si>
   <si>
-    <t>加薩</t>
+    <t>加萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>方濟會</t>
+    <t>方济会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%98%8E%E6%9C%83</t>
   </si>
   <si>
-    <t>道明會</t>
+    <t>道明会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%AD%BB%E7%97%85</t>
@@ -1157,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>十字軍運動</t>
+    <t>十字军运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
@@ -1187,13 +1166,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%BE%E8%B6%8A%E8%8A%82</t>
   </si>
   <si>
-    <t>逾越节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>奴隸貿易</t>
+    <t>奴隶贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E5%8D%A2%E6%96%AF</t>
@@ -1241,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%92%99%E5%B0%BC%E5%BE%B7</t>
   </si>
   <si>
-    <t>邁蒙尼德</t>
+    <t>迈蒙尼德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%8D%80</t>
   </si>
   <si>
-    <t>猶太人區</t>
+    <t>犹太人区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%B0%81%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -1271,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC%E8%82%89</t>
   </si>
   <si>
-    <t>豬肉</t>
+    <t>猪肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%97%8F</t>
@@ -1301,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
@@ -1319,37 +1295,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>自主權</t>
+    <t>自主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民族解放運動</t>
+    <t>民族解放运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>協約國</t>
+    <t>协约国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第一次世界大戰)</t>
+    <t>同盟国 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
   </si>
   <si>
-    <t>犹太人大屠杀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>納粹大屠殺</t>
+    <t>纳粹大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
@@ -1373,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%9B%A0%E5%93%88%E5%BE%B7%C2%B7%E6%B5%B7%E5%BE%B7%E9%87%8C%E5%B8%8C</t>
   </si>
   <si>
-    <t>萊因哈德·海德里希</t>
+    <t>莱因哈德·海德里希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E8%89%BE%E5%B8%8C%E6%9B%BC</t>
@@ -1391,19 +1364,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E9%96%80%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>約瑟夫·門格勒</t>
+    <t>约瑟夫·门格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E5%8D%A1%E7%88%BE%E6%BB%95%E5%B8%83%E5%80%AB%E7%B4%8D</t>
   </si>
   <si>
-    <t>恩斯特·卡爾滕布倫納</t>
+    <t>恩斯特·卡尔滕布伦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%88%88%E5%9F%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>約瑟夫·戈培爾</t>
+    <t>约瑟夫·戈培尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%85%9A</t>
@@ -1457,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>馬達加斯加計劃</t>
+    <t>马达加斯加计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-4%E8%A1%8C%E5%8A%A8</t>
@@ -1469,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%A4%A7%E5%B1%A0%E6%AE%BA%E7%9A%84%E5%8F%97%E5%AE%B3%E8%80%85</t>
   </si>
   <si>
-    <t>納粹大屠殺的受害者</t>
+    <t>纳粹大屠杀的受害者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -1481,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%A4%A7%E5%B1%A0%E6%AE%BA%E4%B8%AD%E7%9A%84%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>納粹大屠殺中的兒童</t>
+    <t>纳粹大屠杀中的儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9E%E7%81%AD</t>
@@ -1505,31 +1478,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>猶太區</t>
+    <t>犹太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E7%A7%91%E5%A4%AB%E7%8C%B6%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉科夫猶太區</t>
+    <t>克拉科夫犹太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8C%B2%E7%8C%B6%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>羅茲猶太區</t>
+    <t>罗兹犹太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E5%85%8B%E7%8C%B6%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>明斯克猶太區</t>
+    <t>明斯克犹太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B2%99%E7%8C%B6%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>華沙猶太區</t>
+    <t>华沙犹太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E9%9A%94%E9%83%BD</t>
@@ -1541,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E7%BE%A4%E8%BF%AB%E5%AE%B3</t>
   </si>
   <si>
-    <t>少數族群迫害</t>
+    <t>少数族群迫害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%99%B6%E4%B9%8B%E5%A4%9C</t>
@@ -1553,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%98%E5%AD%90%E8%B0%B7%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>娘子谷大屠殺</t>
+    <t>娘子谷大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1941%E5%B9%B4%E6%95%96%E5%BE%B7%E8%90%A8%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
@@ -1571,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%B9%96%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬湖會議</t>
+    <t>万湖会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%8C%B5%E5%93%88%E5%BE%B7%E8%A1%8C%E5%8A%A8</t>
@@ -1583,25 +1556,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B1%A0%E6%AE%BA%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>大屠殺列車</t>
+    <t>大屠杀列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%B5%95%E7%87%9F</t>
   </si>
   <si>
-    <t>滅絕營</t>
+    <t>灭绝营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E6%AD%90%E6%B4%B2%E6%88%B0%E5%A0%B4%E7%9A%84%E7%B5%90%E6%9D%9F</t>
   </si>
   <si>
-    <t>第二次世界大戰歐洲戰場的結束</t>
+    <t>第二次世界大战欧洲战场的结束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%8B%89%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>沃拉大屠殺</t>
+    <t>沃拉大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%A8%81%E8%BE%9B%E9%9B%86%E4%B8%AD%E8%90%A5</t>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%9B%86%E4%B8%AD%E7%87%9F</t>
   </si>
   <si>
-    <t>納粹集中營</t>
+    <t>纳粹集中营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%A0%B9-%E8%B4%9D%E5%B0%94%E6%A3%AE%E9%9B%86%E4%B8%AD%E8%90%A5</t>
@@ -1673,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%BE%97%E5%93%A5%E4%BB%80_(%E7%B4%8D%E7%B2%B9%E9%9B%86%E4%B8%AD%E7%87%9F)</t>
   </si>
   <si>
-    <t>比得哥什 (納粹集中營)</t>
+    <t>比得哥什 (纳粹集中营)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%B1%AA%E9%9B%86%E4%B8%AD%E8%90%A5</t>
@@ -1691,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E7%89%B9%E8%B1%AA%E6%A3%AE%EF%BC%8D%E5%8F%A4%E6%A3%AE%E9%9B%86%E4%B8%AD%E7%87%9F</t>
   </si>
   <si>
-    <t>茅特豪森－古森集中營</t>
+    <t>茅特豪森－古森集中营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%9B%A0%E5%8A%A0%E9%BB%98%E9%9B%86%E4%B8%AD%E8%90%A5</t>
@@ -1721,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E6%9D%B1%E5%85%8B%E5%A0%A1%E5%A3%98</t>
   </si>
   <si>
-    <t>布倫東克堡壘</t>
+    <t>布伦东克堡垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%AF%E5%A1%94%E5%BE%B7%E9%9B%86%E4%B8%AD%E8%90%A5</t>
@@ -1739,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%9B%86%E4%B8%AD%E7%87%9F%E8%87%82%E7%AB%A0</t>
   </si>
   <si>
-    <t>納粹集中營臂章</t>
+    <t>纳粹集中营臂章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E6%B0%94%E5%AE%A4</t>
@@ -1751,25 +1724,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%BA%BA%E9%AB%94%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>納粹人體實驗</t>
+    <t>纳粹人体实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%81%A3%E9%9A%8A</t>
   </si>
   <si>
-    <t>特遣隊</t>
+    <t>特遣队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B2%99%E7%8C%B6%E5%A4%AA%E5%8D%80%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>華沙猶太區起義</t>
+    <t>华沙犹太区起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第二次世界大戰)</t>
+    <t>同盟国 (第二次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%BB%B4%E6%98%82%E4%BC%9A%E8%AE%AE</t>
@@ -1799,31 +1772,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E7%B6%AD%E6%A3%AE%E5%A1%94%E7%88%BE%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>西蒙·維森塔爾中心</t>
+    <t>西蒙·维森塔尔中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%BE%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>國際義人</t>
+    <t>国际义人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%8C%B6%E5%A4%AA%E5%A4%A7%E5%B1%A0%E6%AE%BA%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
   </si>
   <si>
-    <t>以色列猶太大屠殺紀念館</t>
+    <t>以色列犹太大屠杀纪念馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%8C%B6%E5%A4%AA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>柏林猶太博物館</t>
+    <t>柏林犹太博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%A2%AB%E5%AE%B3%E7%8C%B6%E5%A4%AA%E4%BA%BA%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>歐洲被害猶太人紀念碑</t>
+    <t>欧洲被害犹太人纪念碑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A6%AE%C2%B7%E5%BC%97%E5%85%B0%E5%85%8B%E4%B9%8B%E5%AE%B6</t>
@@ -1841,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%B1%A0%E6%AE%BA%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
   </si>
   <si>
-    <t>蒙特婁猶太人屠殺紀念館</t>
+    <t>蒙特娄犹太人屠杀纪念馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E7%8A%B9%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%9D%80%E7%BA%AA%E5%BF%B5%E6%9C%8D%E5%8A%A1</t>
@@ -1889,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E</t>
   </si>
   <si>
-    <t>歐美</t>
+    <t>欧美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80</t>
@@ -1901,7 +1874,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
@@ -1913,25 +1886,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83_(%E4%BB%A5%E8%89%B2%E5%88%97)</t>
   </si>
   <si>
-    <t>議會 (以色列)</t>
+    <t>议会 (以色列)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -1961,13 +1934,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E8%82%AF%E7%B4%8D%E8%8C%B2%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿什肯納茲猶太人</t>
+    <t>阿什肯纳兹犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>猶太新年</t>
+    <t>犹太新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -1985,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -2009,19 +1982,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>東德</t>
+    <t>东德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
@@ -2057,19 +2030,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%8B%89%E8%AB%BE</t>
   </si>
   <si>
-    <t>瑪拉諾</t>
+    <t>玛拉诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>哥薩克</t>
+    <t>哥萨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%A0%BC%E4%B8%B9%C2%B7%E8%B5%AB%E6%A2%85%E5%88%A9%E5%B0%BC%E8%8C%A8%E5%9F%BA</t>
@@ -2117,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E8%B2%A2%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>薩爾貢二世</t>
+    <t>萨尔贡二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E8%BE%BE%E7%B1%B3%E4%BA%9A</t>
@@ -2159,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>中國猶太人</t>
+    <t>中国犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
@@ -2183,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E7%88%BE%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>柏柏爾猶太人</t>
+    <t>柏柏尔犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%9C%B0%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -2201,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%AD%B8</t>
   </si>
   <si>
-    <t>基因學</t>
+    <t>基因学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%AD%E5%8F%B8</t>
@@ -2213,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%81%96%E6%AE%BF</t>
   </si>
   <si>
-    <t>第一聖殿</t>
+    <t>第一圣殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%90%A8%E4%BA%BA</t>
@@ -2231,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>敘利亞人</t>
+    <t>叙利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BA%BA</t>
@@ -2291,15 +2261,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
   </si>
   <si>
-    <t>中东</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
   </si>
   <si>
@@ -2315,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E7%9A%AE</t>
@@ -2333,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>性關係</t>
+    <t>性关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%BB%8F</t>
@@ -2369,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%88%A9%E6%BE%A4%C2%B7%E6%9C%AC-%E8%80%B6%E8%83%A1%E9%81%94</t>
   </si>
   <si>
-    <t>艾利澤·本-耶胡達</t>
+    <t>艾利泽·本-耶胡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AF%AD</t>
@@ -2411,7 +2378,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80</t>
   </si>
   <si>
-    <t>五旬節</t>
+    <t>五旬节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E6%A8%A1%E6%96%AF%E6%9C%88</t>
@@ -2429,7 +2396,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E7%A5%BF%E6%9C%88</t>
   </si>
   <si>
-    <t>以祿月</t>
+    <t>以禄月</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%96%AF%E5%88%A9%E6%9C%88</t>
@@ -2441,19 +2408,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5</t>
   </si>
   <si>
-    <t>贖罪日</t>
+    <t>赎罪日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%A5%E6%8B%89%E7%AF%80</t>
   </si>
   <si>
-    <t>妥拉節</t>
+    <t>妥拉节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%A5%BF%E7%8F%AD%E6%9C%88</t>
   </si>
   <si>
-    <t>瑪西班月</t>
+    <t>玛西班月</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%96%AF%E6%B5%81%E6%9C%88</t>
@@ -2477,13 +2444,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BA%9E%E9%81%94%E6%9C%88</t>
   </si>
   <si>
-    <t>第一亞達月</t>
+    <t>第一亚达月</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BA%9E%E9%81%94%E6%9C%88</t>
   </si>
   <si>
-    <t>第二亞達月</t>
+    <t>第二亚达月</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%B0%E5%B9%B4</t>
@@ -2507,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>猶太人諾貝爾獎得主列表</t>
+    <t>犹太人诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A5%96</t>
@@ -2543,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>美國最高法院大法官</t>
+    <t>美国最高法院大法官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Standard_Book_Number</t>
@@ -2585,7 +2552,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>猶太百科全書</t>
+    <t>犹太百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B4%BE</t>
@@ -2597,7 +2564,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%9C%A8%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>猶太人在中國</t>
+    <t>犹太人在中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E7%8A%B9%E5%A4%AA%E7%A7%BB%E6%B0%91</t>
@@ -2609,13 +2576,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%8C%B6%E5%A4%AA%E4%BA%BA%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>臺灣猶太人歷史</t>
+    <t>台湾犹太人历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E4%BA%BA</t>
   </si>
   <si>
-    <t>希伯來人</t>
+    <t>希伯来人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%AD%97%E7%A5%9E%E5%90%8D</t>
@@ -2651,7 +2618,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%AA%B9%E8%AC%97%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>反誹謗聯盟</t>
+    <t>反诽谤联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%9B%B7%E7%A6%8F%E6%96%AF%E4%BA%8B%E4%BB%B6</t>
@@ -2669,55 +2636,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E6%8B%89%E5%B8%83%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>馬格拉布猶太人</t>
+    <t>马格拉布犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>葉門猶太人</t>
+    <t>叶门犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>聖馬力諾猶太人</t>
+    <t>圣马力诺犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%B8%AF%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>在港猶太人</t>
+    <t>在港犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>牙買加猶太人</t>
+    <t>牙买加犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9E%9D%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>柯枝猶太人</t>
+    <t>柯枝犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E5%B0%A4%E9%81%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿巴尤達亞</t>
+    <t>阿巴尤达亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA-%E6%91%A9%E6%B4%9B%E5%93%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>猶太-摩洛哥語</t>
+    <t>犹太-摩洛哥语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA-%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>猶太-葡萄牙語</t>
+    <t>犹太-葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA-%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
@@ -2729,13 +2696,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%9B%B7%E8%BF%AA%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>哈雷迪猶太教</t>
+    <t>哈雷迪犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%A5%BF%E8%BF%AA%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>哈西迪猶太教</t>
+    <t>哈西迪犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E6%B0%91_(%E5%AE%97%E6%95%99)</t>
@@ -2753,13 +2720,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E5%90%88%E6%95%99%E8%A6%8F%E7%9A%84%E9%A3%9F%E7%89%A9_(%E7%8C%B6%E5%A4%AA%E6%95%99)</t>
   </si>
   <si>
-    <t>符合教規的食物 (猶太教)</t>
+    <t>符合教规的食物 (犹太教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E4%BA%9E%E4%B8%83%E5%BE%8B</t>
   </si>
   <si>
-    <t>挪亞七律</t>
+    <t>挪亚七律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%A5%E6%8B%89</t>
@@ -2801,13 +2768,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>以利亞</t>
+    <t>以利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%9E%E8%B2%B7</t>
   </si>
   <si>
-    <t>煞買</t>
+    <t>煞买</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BB%80</t>
@@ -2825,13 +2792,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B0%E6%98%AF%E7%8C%B6%E5%A4%AA%E4%BA%BA%3F</t>
   </si>
   <si>
-    <t>誰是猶太人-</t>
+    <t>谁是犹太人-</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%88%E4%BE%9D%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>皈依猶太教</t>
+    <t>皈依犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99%E5%9B%9B%E5%A4%A7%E5%9C%A3%E5%9F%8E</t>
@@ -2867,9 +2834,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BC%9A%E5%A0%82</t>
   </si>
   <si>
-    <t>犹太会堂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E6%A3%9A%E8%8A%82%E5%9B%9B%E6%A0%B7%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
@@ -2879,9 +2843,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99%E7%81%AF%E5%8F%B0</t>
   </si>
   <si>
-    <t>犹太教灯台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E7%8C%AE%E5%9C%A3%E6%AE%BF%E8%8A%82%E7%81%AF%E5%8F%B0</t>
   </si>
   <si>
@@ -2891,19 +2852,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E8%A7%92%E8%99%9F</t>
   </si>
   <si>
-    <t>羊角號</t>
+    <t>羊角号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%98%87_(%E7%8C%B6%E5%A4%AA%E6%95%99)</t>
   </si>
   <si>
-    <t>流蘇 (猶太教)</t>
+    <t>流苏 (犹太教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B7%B4_(%E7%8C%B6%E5%A4%AA%E6%95%99)</t>
   </si>
   <si>
-    <t>基巴 (猶太教)</t>
+    <t>基巴 (犹太教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%E5%AE%97%E6%95%99</t>
@@ -2927,7 +2888,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B0%E6%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新異教主義</t>
+    <t>新异教主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E5%8E%86%E5%8F%B2</t>
@@ -2939,7 +2900,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>猶太公會</t>
+    <t>犹太公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%88%A9%E8%B5%9B%E4%BA%BA</t>
@@ -2957,13 +2918,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%B3%BD%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>艾賽尼派</t>
+    <t>艾赛尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AE%E9%8A%B3%E9%BB%A8</t>
   </si>
   <si>
-    <t>奮銳黨</t>
+    <t>奋锐党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%B5%AB%E5%B7%B4%E5%A4%A7%E8%B5%B7%E4%B9%89</t>
@@ -2975,7 +2936,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%E4%BA%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>阿利亞運動</t>
+    <t>阿利亚运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%A5%E5%86%B2%E7%AA%81</t>
@@ -2987,13 +2948,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工黨錫安主義</t>
+    <t>工党锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%8D%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>迦南主義</t>
+    <t>迦南主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%94%BF%E6%B2%BB</t>
@@ -3011,7 +2972,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3029,7 +2990,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4560,7 +4521,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>21</v>
@@ -4586,10 +4547,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4615,10 +4576,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -4644,10 +4605,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>37</v>
@@ -4673,10 +4634,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -4702,10 +4663,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>10</v>
@@ -4731,10 +4692,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -4760,10 +4721,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>9</v>
@@ -4789,10 +4750,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4818,10 +4779,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4847,10 +4808,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>11</v>
@@ -4876,10 +4837,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -4905,10 +4866,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>20</v>
@@ -4934,10 +4895,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -4963,10 +4924,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4992,10 +4953,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5021,10 +4982,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5050,10 +5011,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5079,10 +5040,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5108,10 +5069,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5137,10 +5098,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -5166,10 +5127,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
@@ -5195,10 +5156,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -5224,10 +5185,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -5253,10 +5214,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -5282,10 +5243,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5311,10 +5272,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5340,10 +5301,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -5369,10 +5330,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -5398,10 +5359,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5427,10 +5388,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5456,10 +5417,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5485,10 +5446,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5514,10 +5475,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>15</v>
@@ -5543,10 +5504,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -5572,10 +5533,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -5601,10 +5562,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>19</v>
@@ -5630,10 +5591,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5659,10 +5620,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5688,10 +5649,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5717,10 +5678,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>20</v>
@@ -5746,10 +5707,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -5775,10 +5736,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5804,10 +5765,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5833,10 +5794,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>15</v>
@@ -5862,10 +5823,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5891,10 +5852,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5920,10 +5881,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5978,10 +5939,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6007,10 +5968,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6036,10 +5997,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -6065,10 +6026,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -6094,10 +6055,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -6123,10 +6084,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6152,10 +6113,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6181,10 +6142,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6210,10 +6171,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6239,10 +6200,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G99" t="n">
         <v>9</v>
@@ -6268,10 +6229,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6297,10 +6258,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6326,10 +6287,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>39</v>
@@ -6355,10 +6316,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6384,10 +6345,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -6413,10 +6374,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -6442,10 +6403,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6471,10 +6432,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6500,10 +6461,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6529,10 +6490,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -6558,10 +6519,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6587,10 +6548,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6616,10 +6577,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6645,10 +6606,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G113" t="n">
         <v>11</v>
@@ -6674,10 +6635,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6703,10 +6664,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6732,10 +6693,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6761,10 +6722,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6790,10 +6751,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6819,10 +6780,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6848,10 +6809,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -6877,10 +6838,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6906,10 +6867,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F122" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6935,10 +6896,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6964,10 +6925,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F124" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6993,10 +6954,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -7022,10 +6983,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7051,10 +7012,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F127" t="s">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -7080,10 +7041,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7109,10 +7070,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F129" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7138,10 +7099,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -7167,10 +7128,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7196,10 +7157,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7225,10 +7186,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7254,10 +7215,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7283,10 +7244,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7312,10 +7273,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>10</v>
@@ -7341,10 +7302,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G137" t="n">
         <v>15</v>
@@ -7370,10 +7331,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G138" t="n">
         <v>7</v>
@@ -7399,10 +7360,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7428,10 +7389,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7457,10 +7418,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F141" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7486,10 +7447,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -7515,10 +7476,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G143" t="n">
         <v>12</v>
@@ -7544,10 +7505,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7573,10 +7534,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7602,10 +7563,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7631,10 +7592,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7660,10 +7621,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G148" t="n">
         <v>21</v>
@@ -7689,10 +7650,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7718,10 +7679,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7747,10 +7708,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7776,10 +7737,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F152" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7805,10 +7766,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7834,10 +7795,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7863,10 +7824,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7892,10 +7853,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7921,10 +7882,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7950,10 +7911,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F158" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7979,10 +7940,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F159" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8008,10 +7969,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F160" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8037,10 +7998,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F161" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="G161" t="n">
         <v>6</v>
@@ -8066,10 +8027,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8095,10 +8056,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
@@ -8124,10 +8085,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F164" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -8153,10 +8114,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F165" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8182,10 +8143,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F166" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8211,10 +8172,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8240,10 +8201,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8269,10 +8230,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8298,10 +8259,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8327,10 +8288,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8356,10 +8317,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8385,10 +8346,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -8414,10 +8375,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8443,10 +8404,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G175" t="n">
         <v>15</v>
@@ -8472,10 +8433,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8501,10 +8462,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8530,10 +8491,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8559,10 +8520,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8588,10 +8549,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8617,10 +8578,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8646,10 +8607,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -8675,10 +8636,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8704,10 +8665,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8733,10 +8694,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8762,10 +8723,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8791,10 +8752,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8820,10 +8781,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8849,10 +8810,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8878,10 +8839,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8907,10 +8868,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -8936,10 +8897,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8965,10 +8926,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
@@ -8994,10 +8955,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -9023,10 +8984,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -9052,10 +9013,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F196" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G196" t="n">
         <v>10</v>
@@ -9081,10 +9042,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F197" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9110,10 +9071,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F198" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9139,10 +9100,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F199" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9168,10 +9129,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F200" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9197,10 +9158,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9226,10 +9187,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F202" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9255,10 +9216,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9284,10 +9245,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>11</v>
@@ -9313,10 +9274,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9342,10 +9303,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G206" t="n">
         <v>10</v>
@@ -9371,10 +9332,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -9400,10 +9361,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9429,10 +9390,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9458,10 +9419,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9487,10 +9448,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9516,10 +9477,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9545,10 +9506,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -9574,10 +9535,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9603,10 +9564,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9632,10 +9593,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9661,10 +9622,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9690,10 +9651,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G218" t="n">
         <v>6</v>
@@ -9719,10 +9680,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F219" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9748,10 +9709,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9777,10 +9738,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -9806,10 +9767,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -9835,10 +9796,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G223" t="n">
         <v>9</v>
@@ -9864,10 +9825,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G224" t="n">
         <v>6</v>
@@ -9893,10 +9854,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9922,10 +9883,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F226" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9951,10 +9912,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F227" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9980,10 +9941,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F228" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10009,10 +9970,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10038,10 +9999,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F230" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G230" t="n">
         <v>5</v>
@@ -10067,10 +10028,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10096,10 +10057,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10125,10 +10086,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F233" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G233" t="n">
         <v>24</v>
@@ -10154,10 +10115,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F234" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10183,10 +10144,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10212,10 +10173,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F236" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10241,10 +10202,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F237" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10270,10 +10231,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F238" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10299,10 +10260,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F239" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10328,10 +10289,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F240" t="s">
-        <v>442</v>
+        <v>116</v>
       </c>
       <c r="G240" t="n">
         <v>10</v>
@@ -10357,10 +10318,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F241" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -10386,10 +10347,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -10415,10 +10376,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10444,10 +10405,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10473,10 +10434,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10502,10 +10463,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10531,10 +10492,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10560,10 +10521,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10589,10 +10550,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10618,10 +10579,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F250" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10647,10 +10608,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F251" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -10676,10 +10637,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F252" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10705,10 +10666,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F253" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10734,10 +10695,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F254" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10763,10 +10724,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F255" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10792,10 +10753,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F256" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10821,10 +10782,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F257" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10850,10 +10811,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F258" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10879,10 +10840,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F259" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10908,10 +10869,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F260" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10937,10 +10898,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F261" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10966,10 +10927,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10995,10 +10956,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11024,10 +10985,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F264" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11053,10 +11014,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11082,10 +11043,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F266" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11111,10 +11072,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11140,10 +11101,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G268" t="n">
         <v>17</v>
@@ -11169,10 +11130,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11198,10 +11159,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11227,10 +11188,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11256,10 +11217,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11285,10 +11246,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11314,10 +11275,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11343,10 +11304,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11372,10 +11333,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F276" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11401,10 +11362,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F277" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11430,10 +11391,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F278" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11459,10 +11420,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F279" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11488,10 +11449,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F280" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11517,10 +11478,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F281" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11546,10 +11507,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11575,10 +11536,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F283" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11604,10 +11565,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F284" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11633,10 +11594,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F285" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11662,10 +11623,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F286" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11691,10 +11652,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F287" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11720,10 +11681,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F288" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11749,10 +11710,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F289" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11778,10 +11739,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F290" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11807,10 +11768,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11836,10 +11797,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11865,10 +11826,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F293" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11894,10 +11855,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F294" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11923,10 +11884,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F295" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11952,10 +11913,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11981,10 +11942,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12010,10 +11971,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12039,10 +12000,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12068,10 +12029,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12097,10 +12058,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12126,10 +12087,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12155,10 +12116,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12184,10 +12145,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12213,10 +12174,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12242,10 +12203,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12271,10 +12232,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12300,10 +12261,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12329,10 +12290,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12358,10 +12319,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12387,10 +12348,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12416,10 +12377,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12445,10 +12406,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12474,10 +12435,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12503,10 +12464,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12532,10 +12493,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12561,10 +12522,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G317" t="n">
         <v>3</v>
@@ -12590,10 +12551,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12619,10 +12580,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12648,10 +12609,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12677,10 +12638,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12706,10 +12667,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12735,10 +12696,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12764,10 +12725,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12793,10 +12754,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12822,10 +12783,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12851,10 +12812,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12880,10 +12841,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12909,10 +12870,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12938,10 +12899,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F330" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G330" t="n">
         <v>46</v>
@@ -12967,10 +12928,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F331" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G331" t="n">
         <v>29</v>
@@ -12996,10 +12957,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F332" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13025,10 +12986,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F333" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13054,10 +13015,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F334" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13083,10 +13044,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F335" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13112,10 +13073,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F336" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G336" t="n">
         <v>12</v>
@@ -13141,10 +13102,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F337" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13170,10 +13131,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F338" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G338" t="n">
         <v>18</v>
@@ -13199,10 +13160,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F339" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13228,10 +13189,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F340" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13257,10 +13218,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F341" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13286,10 +13247,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13315,10 +13276,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13344,10 +13305,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F344" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13373,10 +13334,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F345" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G345" t="n">
         <v>6</v>
@@ -13402,10 +13363,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F346" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G346" t="n">
         <v>6</v>
@@ -13431,10 +13392,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F347" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G347" t="n">
         <v>14</v>
@@ -13460,10 +13421,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F348" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13489,10 +13450,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F349" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G349" t="n">
         <v>3</v>
@@ -13518,10 +13479,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F350" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13547,10 +13508,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F351" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13576,10 +13537,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F352" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13605,10 +13566,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F353" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13634,10 +13595,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F354" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13692,10 +13653,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F356" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G356" t="n">
         <v>4</v>
@@ -13721,10 +13682,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13750,10 +13711,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F358" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13779,10 +13740,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F359" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13808,10 +13769,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F360" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13837,10 +13798,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F361" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13866,10 +13827,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F362" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13895,10 +13856,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F363" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13924,10 +13885,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F364" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G364" t="n">
         <v>4</v>
@@ -13953,10 +13914,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F365" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13982,10 +13943,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F366" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14011,10 +13972,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F367" t="s">
-        <v>682</v>
+        <v>32</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14040,10 +14001,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F368" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14069,10 +14030,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F369" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14098,10 +14059,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F370" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -14127,10 +14088,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F371" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -14156,10 +14117,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F372" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G372" t="n">
         <v>5</v>
@@ -14185,10 +14146,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F373" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14214,10 +14175,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F374" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14243,10 +14204,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F375" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G375" t="n">
         <v>13</v>
@@ -14272,10 +14233,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F376" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14301,10 +14262,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F377" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14330,10 +14291,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F378" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14359,10 +14320,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F379" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14388,10 +14349,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F380" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14417,10 +14378,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F381" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14446,10 +14407,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F382" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14475,10 +14436,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F383" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14504,10 +14465,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F384" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14533,10 +14494,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F385" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14562,10 +14523,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F386" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G386" t="n">
         <v>6</v>
@@ -14591,10 +14552,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F387" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14620,10 +14581,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F388" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -14649,10 +14610,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F389" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -14678,10 +14639,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F390" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14707,10 +14668,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F391" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14736,10 +14697,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F392" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14765,10 +14726,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F393" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14794,10 +14755,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F394" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14823,10 +14784,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F395" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14852,10 +14813,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F396" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14881,10 +14842,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F397" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14910,10 +14871,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F398" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G398" t="n">
         <v>4</v>
@@ -14939,10 +14900,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F399" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G399" t="n">
         <v>4</v>
@@ -14968,10 +14929,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F400" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14997,10 +14958,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F401" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15026,10 +14987,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F402" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15055,10 +15016,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F403" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15084,10 +15045,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F404" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15113,10 +15074,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F405" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15142,10 +15103,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F406" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G406" t="n">
         <v>16</v>
@@ -15171,10 +15132,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F407" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G407" t="n">
         <v>19</v>
@@ -15200,10 +15161,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F408" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G408" t="n">
         <v>9</v>
@@ -15229,10 +15190,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F409" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -15258,10 +15219,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F410" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15287,10 +15248,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F411" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15316,10 +15277,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F412" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G412" t="n">
         <v>3</v>
@@ -15345,10 +15306,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F413" t="s">
-        <v>760</v>
+        <v>619</v>
       </c>
       <c r="G413" t="n">
         <v>23</v>
@@ -15374,10 +15335,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F414" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G414" t="n">
         <v>21</v>
@@ -15403,10 +15364,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F415" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15432,10 +15393,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="F416" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15461,10 +15422,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F417" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15490,10 +15451,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F418" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15519,10 +15480,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F419" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="G419" t="n">
         <v>4</v>
@@ -15548,10 +15509,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="F420" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15577,10 +15538,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F421" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15606,10 +15567,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F422" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15635,10 +15596,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F423" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15693,10 +15654,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="F425" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15722,10 +15683,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F426" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15751,10 +15712,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F427" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15780,10 +15741,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F428" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G428" t="n">
         <v>4</v>
@@ -15809,10 +15770,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F429" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G429" t="n">
         <v>3</v>
@@ -15867,10 +15828,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F431" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15896,10 +15857,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F432" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -15925,10 +15886,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="F433" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15954,10 +15915,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F434" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15983,10 +15944,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="F435" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16012,10 +15973,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F436" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16041,10 +16002,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="F437" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16070,10 +16031,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F438" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16099,10 +16060,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F439" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16128,10 +16089,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F440" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16157,10 +16118,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F441" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16186,10 +16147,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F442" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16215,10 +16176,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F443" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16244,10 +16205,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="F444" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16273,10 +16234,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="F445" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16302,10 +16263,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F446" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16331,10 +16292,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F447" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16360,10 +16321,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F448" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16389,10 +16350,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F449" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G449" t="n">
         <v>3</v>
@@ -16418,10 +16379,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="F450" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -16447,10 +16408,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F451" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16476,10 +16437,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F452" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16505,10 +16466,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F453" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16534,10 +16495,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F454" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16563,10 +16524,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F455" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16592,10 +16553,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F456" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16621,10 +16582,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F457" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16650,10 +16611,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F458" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16679,10 +16640,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F459" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G459" t="n">
         <v>13</v>
@@ -16708,10 +16669,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="F460" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16737,10 +16698,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F461" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G461" t="n">
         <v>82</v>
@@ -16766,10 +16727,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F462" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G462" t="n">
         <v>17</v>
@@ -16795,10 +16756,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F463" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G463" t="n">
         <v>13</v>
@@ -16824,10 +16785,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F464" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -16853,10 +16814,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="F465" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16882,10 +16843,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F466" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16911,10 +16872,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F467" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -16940,10 +16901,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F468" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16969,10 +16930,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F469" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -16998,10 +16959,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="F470" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17027,10 +16988,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F471" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17056,10 +17017,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F472" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17085,10 +17046,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F473" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17114,10 +17075,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F474" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17143,10 +17104,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F475" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17201,10 +17162,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F477" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17230,10 +17191,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F478" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17259,10 +17220,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F479" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17288,10 +17249,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F480" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17317,10 +17278,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F481" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17346,10 +17307,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F482" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -17375,10 +17336,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F483" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17404,10 +17365,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F484" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17433,10 +17394,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F485" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17462,10 +17423,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F486" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17491,10 +17452,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F487" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17520,10 +17481,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F488" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G488" t="n">
         <v>3</v>
@@ -17549,10 +17510,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F489" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17578,10 +17539,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F490" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17607,10 +17568,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F491" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17636,10 +17597,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F492" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17665,10 +17626,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F493" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17694,10 +17655,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F494" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G494" t="n">
         <v>5</v>
@@ -17723,10 +17684,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F495" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17752,10 +17713,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F496" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -17781,10 +17742,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F497" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -17810,10 +17771,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F498" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17839,10 +17800,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F499" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17868,10 +17829,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F500" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17897,10 +17858,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F501" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -17955,10 +17916,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F503" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18013,10 +17974,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F505" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18042,10 +18003,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F506" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18071,10 +18032,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F507" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18100,10 +18061,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F508" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18158,10 +18119,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F510" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18187,10 +18148,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F511" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18216,10 +18177,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F512" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18245,10 +18206,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F513" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18274,10 +18235,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F514" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18303,10 +18264,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F515" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -18332,10 +18293,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F516" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18361,10 +18322,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F517" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18390,10 +18351,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F518" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18419,10 +18380,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F519" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18448,10 +18409,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F520" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18477,10 +18438,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F521" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18506,10 +18467,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F522" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18535,10 +18496,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F523" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="G523" t="n">
         <v>3</v>
@@ -18564,10 +18525,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F524" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18593,10 +18554,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="F525" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18622,10 +18583,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F526" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G526" t="n">
         <v>5</v>
@@ -18651,10 +18612,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F527" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18680,10 +18641,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F528" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18709,10 +18670,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="F529" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18738,10 +18699,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F530" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18767,10 +18728,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F531" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G531" t="n">
         <v>14</v>
@@ -18796,10 +18757,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="F532" t="s">
-        <v>950</v>
+        <v>158</v>
       </c>
       <c r="G532" t="n">
         <v>4</v>
@@ -18825,10 +18786,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F533" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G533" t="n">
         <v>25</v>
@@ -18854,10 +18815,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F534" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18883,10 +18844,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F535" t="s">
-        <v>954</v>
+        <v>327</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18912,10 +18873,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="F536" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -18941,10 +18902,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="F537" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -18970,10 +18931,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="F538" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -18999,10 +18960,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="F539" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19028,10 +18989,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="F540" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19057,10 +19018,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="F541" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="G541" t="n">
         <v>22</v>
@@ -19086,10 +19047,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F542" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19115,10 +19076,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F543" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19144,10 +19105,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F544" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G544" t="n">
         <v>60</v>
@@ -19173,10 +19134,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F545" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G545" t="n">
         <v>2</v>
@@ -19202,10 +19163,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F546" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G546" t="n">
         <v>5</v>
@@ -19231,10 +19192,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F547" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19260,10 +19221,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F548" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19289,10 +19250,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F549" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19318,10 +19279,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F550" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19347,10 +19308,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F551" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19376,10 +19337,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F552" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19405,10 +19366,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F553" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G553" t="n">
         <v>19</v>
@@ -19434,10 +19395,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F554" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G554" t="n">
         <v>9</v>
@@ -19463,10 +19424,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="F555" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="G555" t="n">
         <v>2</v>
@@ -19492,10 +19453,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F556" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19521,10 +19482,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F557" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19550,10 +19511,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="F558" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19579,10 +19540,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F559" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="G559" t="n">
         <v>2</v>
@@ -19608,10 +19569,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F560" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19637,10 +19598,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F561" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G561" t="n">
         <v>4</v>
@@ -19666,10 +19627,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F562" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="G562" t="n">
         <v>3</v>
@@ -19695,10 +19656,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F563" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19724,10 +19685,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="F564" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -19753,10 +19714,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F565" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>

--- a/xlsx/犹太人_intext.xlsx
+++ b/xlsx/犹太人_intext.xlsx
@@ -29,7 +29,7 @@
     <t>犹太 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_犹太人</t>
+    <t>体育运动_体育运动_纳粹德国_犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
@@ -16830,7 +16830,7 @@
         <v>850</v>
       </c>
       <c r="G464" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
